--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,14 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>082992023828341301030201353535303.5</v>
+        <v>082992023828341301030201353535303.50</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -615,6 +615,9 @@
       <c r="C21" t="str">
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -676,7 +679,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>082992023828341301030201353535303.50</v>
+        <v>082992023828341301030201353535303.52</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -616,7 +616,7 @@
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
       <c r="F21" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>082992023828341301030201353535303.52</v>
+        <v>082992023828341301030201353535303.520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -681,6 +681,9 @@
       <c r="G2" t="str">
         <v>082992023828341301030201353535303.520</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,34 +446,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+        <v>369_芦苇叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>303_彩星 粉_Tinted Gypso pink_undefined_0.5kg</v>
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -481,147 +481,52 @@
         <v>2</v>
       </c>
       <c r="C6" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>191_朱小姐_Miss Piggy_Rosa rugosa Thunb._20stems</v>
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>3</v>
-      </c>
       <c r="C9" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
       </c>
       <c r="F9" t="str">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>191_朱小姐_Miss Piggy_Rosa rugosa Thunb._20stems</v>
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
       </c>
       <c r="F10" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
-      </c>
-      <c r="F11" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F12" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
-      </c>
-      <c r="F13" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>4</v>
-      </c>
-      <c r="C14" t="str">
-        <v>475_诺贝松_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F14" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F15" t="str">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>5</v>
-      </c>
-      <c r="C17" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
-      </c>
-      <c r="F17" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
-      </c>
-      <c r="F18" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
-      </c>
-      <c r="F19" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>6</v>
-      </c>
-      <c r="C20" t="str">
-        <v>156_摩卡/太妃糖_Toffee_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F20" t="str">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
-      </c>
-      <c r="F21" t="str">
-        <v>20</v>
+        <v>50_大溪地_undefined_Gerbera L._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -679,10 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>082992023828341301030201353535303.520</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>010303010025252520100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>50_大溪地_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010303010025252520100</v>
+        <v>0103030100252525201010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>711_重瓣白百合_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0103030100252525201010</v>
+        <v>0103030100252525201010302551566191510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +609,94 @@
       <c r="A21" t="str">
         <v>5</v>
       </c>
+      <c r="C21" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>6</v>
+      </c>
+      <c r="C25" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>7</v>
+      </c>
+      <c r="C30" t="str">
+        <v>722_冬青橙_ilex_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0103030100252525201010302551566191510</v>
+        <v>0103030100252525201010302551566191518251544151010109320</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-4.xlsx
@@ -756,6 +756,9 @@
       <c r="G2" t="str">
         <v>0103030100252525201010302551566191518251544151010109320</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
